--- a/result/table/RQ4-4.xlsx
+++ b/result/table/RQ4-4.xlsx
@@ -46,25 +46,25 @@
     <t>XGMP</t>
   </si>
   <si>
-    <t>0.7089</t>
-  </si>
-  <si>
-    <t>0.7093</t>
-  </si>
-  <si>
-    <t>0.7941</t>
-  </si>
-  <si>
-    <t>0.6978</t>
-  </si>
-  <si>
-    <t>0.7091</t>
-  </si>
-  <si>
-    <t>0.7863</t>
-  </si>
-  <si>
-    <t>0.7963</t>
+    <t>0.7085</t>
+  </si>
+  <si>
+    <t>0.7088</t>
+  </si>
+  <si>
+    <t>0.7937</t>
+  </si>
+  <si>
+    <t>0.6974</t>
+  </si>
+  <si>
+    <t>0.7087</t>
+  </si>
+  <si>
+    <t>0.7858</t>
+  </si>
+  <si>
+    <t>0.7958</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -499,7 +499,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -510,7 +510,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
